--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H2">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I2">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J2">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>0.8048790556945558</v>
+        <v>6.035293208518667</v>
       </c>
       <c r="R2">
-        <v>7.243911501251002</v>
+        <v>54.317638876668</v>
       </c>
       <c r="S2">
-        <v>0.002946785303574868</v>
+        <v>0.02019486602698026</v>
       </c>
       <c r="T2">
-        <v>0.002946785303574869</v>
+        <v>0.02019486602698027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H3">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I3">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J3">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>0.9495497005608891</v>
+        <v>2.024410081210667</v>
       </c>
       <c r="R3">
-        <v>8.545947305048003</v>
+        <v>18.219690730896</v>
       </c>
       <c r="S3">
-        <v>0.003476446657208838</v>
+        <v>0.006773936072569389</v>
       </c>
       <c r="T3">
-        <v>0.003476446657208839</v>
+        <v>0.006773936072569391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H4">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I4">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J4">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.1215362979683334</v>
+        <v>0.3470564829526667</v>
       </c>
       <c r="R4">
-        <v>1.093826681715</v>
+        <v>3.123508346574</v>
       </c>
       <c r="S4">
-        <v>0.0004449629719771118</v>
+        <v>0.00116129555514078</v>
       </c>
       <c r="T4">
-        <v>0.0004449629719771119</v>
+        <v>0.00116129555514078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H5">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I5">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J5">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.1008199695137778</v>
+        <v>0.109543086372</v>
       </c>
       <c r="R5">
-        <v>0.9073797256240003</v>
+        <v>0.985887777348</v>
       </c>
       <c r="S5">
-        <v>0.0003691173256007937</v>
+        <v>0.0003665452326892736</v>
       </c>
       <c r="T5">
-        <v>0.0003691173256007937</v>
+        <v>0.0003665452326892736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H6">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I6">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J6">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>4.343810808839335</v>
+        <v>6.637568040167333</v>
       </c>
       <c r="R6">
-        <v>39.09429727955401</v>
+        <v>59.738112361506</v>
       </c>
       <c r="S6">
-        <v>0.01590335561900246</v>
+        <v>0.02221015494772389</v>
       </c>
       <c r="T6">
-        <v>0.01590335561900247</v>
+        <v>0.02221015494772389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H7">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I7">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J7">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.181021064781889</v>
+        <v>0.1573641994886667</v>
       </c>
       <c r="R7">
-        <v>1.629189583037</v>
+        <v>1.416277795398</v>
       </c>
       <c r="S7">
-        <v>0.000662745799586536</v>
+        <v>0.0005265608175640951</v>
       </c>
       <c r="T7">
-        <v>0.0006627457995865362</v>
+        <v>0.0005265608175640951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J8">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>29.94601073821889</v>
+        <v>105.3236577824422</v>
       </c>
       <c r="R8">
-        <v>269.51409664397</v>
+        <v>947.91292004198</v>
       </c>
       <c r="S8">
-        <v>0.1096369246034482</v>
+        <v>0.3524264828402593</v>
       </c>
       <c r="T8">
-        <v>0.1096369246034482</v>
+        <v>0.3524264828402595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J9">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>35.32856934006222</v>
@@ -1013,10 +1013,10 @@
         <v>317.95712406056</v>
       </c>
       <c r="S9">
-        <v>0.1293432947361078</v>
+        <v>0.118213929315052</v>
       </c>
       <c r="T9">
-        <v>0.1293432947361078</v>
+        <v>0.118213929315052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J10">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>4.521831271783333</v>
+        <v>6.056583661932222</v>
       </c>
       <c r="R10">
-        <v>40.69648144605</v>
+        <v>54.50925295739</v>
       </c>
       <c r="S10">
-        <v>0.01655511575641378</v>
+        <v>0.02026610661786548</v>
       </c>
       <c r="T10">
-        <v>0.01655511575641378</v>
+        <v>0.02026610661786548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J11">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>3.751067776364445</v>
+        <v>1.91166827242</v>
       </c>
       <c r="R11">
-        <v>33.75960998728</v>
+        <v>17.20501445178</v>
       </c>
       <c r="S11">
-        <v>0.01373323273589907</v>
+        <v>0.006396687503940894</v>
       </c>
       <c r="T11">
-        <v>0.01373323273589907</v>
+        <v>0.006396687503940896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J12">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>161.6141011571533</v>
+        <v>115.8341311046011</v>
       </c>
       <c r="R12">
-        <v>1454.52691041438</v>
+        <v>1042.50717994141</v>
       </c>
       <c r="S12">
-        <v>0.5916939380779352</v>
+        <v>0.3875958761551612</v>
       </c>
       <c r="T12">
-        <v>0.5916939380779354</v>
+        <v>0.3875958761551613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J13">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>6.734997899932223</v>
+        <v>2.746208431225555</v>
       </c>
       <c r="R13">
-        <v>60.61498109939</v>
+        <v>24.71587588103</v>
       </c>
       <c r="S13">
-        <v>0.02465785721558081</v>
+        <v>0.009189166032974885</v>
       </c>
       <c r="T13">
-        <v>0.02465785721558082</v>
+        <v>0.009189166032974885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H14">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.5588484925102222</v>
+        <v>0.6380432585037777</v>
       </c>
       <c r="R14">
-        <v>5.029636432592</v>
+        <v>5.742389326534</v>
       </c>
       <c r="S14">
-        <v>0.002046029789199833</v>
+        <v>0.002134974669783166</v>
       </c>
       <c r="T14">
-        <v>0.002046029789199833</v>
+        <v>0.002134974669783166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H15">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.6592970893795556</v>
+        <v>0.2140179706497778</v>
       </c>
       <c r="R15">
-        <v>5.933673804416</v>
+        <v>1.926161735848</v>
       </c>
       <c r="S15">
-        <v>0.00241378746275967</v>
+        <v>0.0007161316103976472</v>
       </c>
       <c r="T15">
-        <v>0.00241378746275967</v>
+        <v>0.0007161316103976473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H16">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.08438581725333333</v>
+        <v>0.03669035482077777</v>
       </c>
       <c r="R16">
-        <v>0.75947235528</v>
+        <v>0.3302131933869999</v>
       </c>
       <c r="S16">
-        <v>0.0003089493810939019</v>
+        <v>0.000122770638391211</v>
       </c>
       <c r="T16">
-        <v>0.0003089493810939019</v>
+        <v>0.000122770638391211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H17">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.07000193082311111</v>
+        <v>0.011580750986</v>
       </c>
       <c r="R17">
-        <v>0.630017377408</v>
+        <v>0.104226758874</v>
       </c>
       <c r="S17">
-        <v>0.0002562877733144668</v>
+        <v>3.875067980524714E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002562877733144668</v>
+        <v>3.875067980524715E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H18">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>3.016020984885333</v>
+        <v>0.7017149614058888</v>
       </c>
       <c r="R18">
-        <v>27.144188863968</v>
+        <v>6.315434652653</v>
       </c>
       <c r="S18">
-        <v>0.01104211403024289</v>
+        <v>0.002348028363347365</v>
       </c>
       <c r="T18">
-        <v>0.01104211403024289</v>
+        <v>0.002348028363347365</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H19">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.1256876402115556</v>
+        <v>0.01663633615544444</v>
       </c>
       <c r="R19">
-        <v>1.131188761904</v>
+        <v>0.149727025399</v>
       </c>
       <c r="S19">
-        <v>0.0004601616707454384</v>
+        <v>5.566731693578651E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004601616707454385</v>
+        <v>5.566731693578651E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H20">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>1.923848154453667</v>
+        <v>4.424757255596888</v>
       </c>
       <c r="R20">
-        <v>17.314633390083</v>
+        <v>39.822815300372</v>
       </c>
       <c r="S20">
-        <v>0.007043502284901169</v>
+        <v>0.01480580593044963</v>
       </c>
       <c r="T20">
-        <v>0.00704350228490117</v>
+        <v>0.01480580593044963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H21">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>2.269644645442667</v>
+        <v>1.484190226664889</v>
       </c>
       <c r="R21">
-        <v>20.426801808984</v>
+        <v>13.357712039984</v>
       </c>
       <c r="S21">
-        <v>0.008309516116997753</v>
+        <v>0.004966291073272913</v>
       </c>
       <c r="T21">
-        <v>0.008309516116997755</v>
+        <v>0.004966291073272915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H22">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.290500020955</v>
+        <v>0.2544434276828889</v>
       </c>
       <c r="R22">
-        <v>2.614500188595001</v>
+        <v>2.289990849146</v>
       </c>
       <c r="S22">
-        <v>0.001063564999464025</v>
+        <v>0.0008514003803905973</v>
       </c>
       <c r="T22">
-        <v>0.001063564999464025</v>
+        <v>0.0008514003803905975</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H23">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.2409831774213334</v>
+        <v>0.08031118778799998</v>
       </c>
       <c r="R23">
-        <v>2.168848596792</v>
+        <v>0.722800690092</v>
       </c>
       <c r="S23">
-        <v>0.0008822762632594162</v>
+        <v>0.0002687315465563593</v>
       </c>
       <c r="T23">
-        <v>0.0008822762632594163</v>
+        <v>0.0002687315465563593</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H24">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>10.382718184498</v>
+        <v>4.866313256130444</v>
       </c>
       <c r="R24">
-        <v>93.44446366048201</v>
+        <v>43.796819305174</v>
       </c>
       <c r="S24">
-        <v>0.03801271898028989</v>
+        <v>0.01628330900546146</v>
       </c>
       <c r="T24">
-        <v>0.0380127189802899</v>
+        <v>0.01628330900546146</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H25">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>0.4326824495356668</v>
+        <v>0.1153710945602222</v>
       </c>
       <c r="R25">
-        <v>3.894142045821001</v>
+        <v>1.038339851042</v>
       </c>
       <c r="S25">
-        <v>0.00158411661278255</v>
+        <v>0.0003860464964222712</v>
       </c>
       <c r="T25">
-        <v>0.00158411661278255</v>
+        <v>0.0003860464964222713</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.343811</v>
       </c>
       <c r="I26">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J26">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.2397843731385556</v>
+        <v>0.8433499700108888</v>
       </c>
       <c r="R26">
-        <v>2.158059358247</v>
+        <v>7.590149730097999</v>
       </c>
       <c r="S26">
-        <v>0.0008778872574611427</v>
+        <v>0.002821957288535445</v>
       </c>
       <c r="T26">
-        <v>0.0008778872574611429</v>
+        <v>0.002821957288535445</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.343811</v>
       </c>
       <c r="I27">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J27">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
         <v>0.2828837178728889</v>
@@ -2129,10 +2129,10 @@
         <v>2.545953460856</v>
       </c>
       <c r="S27">
-        <v>0.001035680549208863</v>
+        <v>0.0009465652431920953</v>
       </c>
       <c r="T27">
-        <v>0.001035680549208863</v>
+        <v>0.0009465652431920954</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.343811</v>
       </c>
       <c r="I28">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J28">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.03620730942833334</v>
+        <v>0.04849641340988888</v>
       </c>
       <c r="R28">
-        <v>0.325865784855</v>
+        <v>0.436467720689</v>
       </c>
       <c r="S28">
-        <v>0.0001325604965746435</v>
+        <v>0.0001622752263666969</v>
       </c>
       <c r="T28">
-        <v>0.0001325604965746435</v>
+        <v>0.0001622752263666969</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.343811</v>
       </c>
       <c r="I29">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J29">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.03003563456977778</v>
+        <v>0.015307153342</v>
       </c>
       <c r="R29">
-        <v>0.270320711128</v>
+        <v>0.137764380078</v>
       </c>
       <c r="S29">
-        <v>0.0001099650511559026</v>
+        <v>5.121970057060518E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001099650511559026</v>
+        <v>5.121970057060519E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.343811</v>
       </c>
       <c r="I30">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J30">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>1.294080078815333</v>
+        <v>0.9275096692434444</v>
       </c>
       <c r="R30">
-        <v>11.646720709338</v>
+        <v>8.347587023191</v>
       </c>
       <c r="S30">
-        <v>0.004737825056972501</v>
+        <v>0.003103566448546673</v>
       </c>
       <c r="T30">
-        <v>0.004737825056972502</v>
+        <v>0.003103566448546674</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.343811</v>
       </c>
       <c r="I31">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J31">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.0539286272098889</v>
+        <v>0.02198950213922222</v>
       </c>
       <c r="R31">
-        <v>0.4853576448890001</v>
+        <v>0.197905519253</v>
       </c>
       <c r="S31">
-        <v>0.0001974409508853906</v>
+        <v>7.357969768142959E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001974409508853906</v>
+        <v>7.357969768142959E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H32">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>0.3402269588925556</v>
+        <v>0.5349679959617778</v>
       </c>
       <c r="R32">
-        <v>3.062042630033</v>
+        <v>4.814711963656</v>
       </c>
       <c r="S32">
-        <v>0.001245622923408535</v>
+        <v>0.001790071606118688</v>
       </c>
       <c r="T32">
-        <v>0.001245622923408535</v>
+        <v>0.001790071606118689</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H33">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>0.4013800640648889</v>
+        <v>0.1794435774257778</v>
       </c>
       <c r="R33">
-        <v>3.612420576584</v>
+        <v>1.614992196832</v>
       </c>
       <c r="S33">
-        <v>0.001469513792868786</v>
+        <v>0.0006004412512056055</v>
       </c>
       <c r="T33">
-        <v>0.001469513792868786</v>
+        <v>0.0006004412512056057</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H34">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.05137408503833333</v>
+        <v>0.03076306398977778</v>
       </c>
       <c r="R34">
-        <v>0.462366765345</v>
+        <v>0.276867575908</v>
       </c>
       <c r="S34">
-        <v>0.0001880883813592693</v>
+        <v>0.0001029371621872647</v>
       </c>
       <c r="T34">
-        <v>0.0001880883813592693</v>
+        <v>0.0001029371621872647</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H35">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.04261717506577778</v>
+        <v>0.009709892023999999</v>
       </c>
       <c r="R35">
-        <v>0.383554575592</v>
+        <v>0.087389028216</v>
       </c>
       <c r="S35">
-        <v>0.0001560279948586078</v>
+        <v>3.249054549401976E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001560279948586078</v>
+        <v>3.249054549401976E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H36">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>1.836153557531333</v>
+        <v>0.5883535977168889</v>
       </c>
       <c r="R36">
-        <v>16.525382017782</v>
+        <v>5.295182379452</v>
       </c>
       <c r="S36">
-        <v>0.00672243895546634</v>
+        <v>0.001968706684476183</v>
       </c>
       <c r="T36">
-        <v>0.00672243895546634</v>
+        <v>0.001968706684476184</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H37">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.07651863460788889</v>
+        <v>0.01394875236844445</v>
       </c>
       <c r="R37">
-        <v>0.6886677114709999</v>
+        <v>0.125538771316</v>
       </c>
       <c r="S37">
-        <v>0.0002801464223933183</v>
+        <v>4.667431648998532E-05</v>
       </c>
       <c r="T37">
-        <v>0.0002801464223933185</v>
+        <v>4.667431648998532E-05</v>
       </c>
     </row>
   </sheetData>
